--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>usernametextbox</t>
+  </si>
+  <si>
+    <t>passwordtextbox</t>
+  </si>
+  <si>
+    <t>savebutton</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -411,8 +421,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>2</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -576,6 +586,16 @@
       </c>
       <c r="D16">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
